--- a/DatosconClases.xlsx
+++ b/DatosconClases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\Dropbox\UdeA\Cursos 2020-1\Fundamentos IntComputacional\RedesNeuronales\Tarea RNA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\FIC\Tarea-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD5A762-8570-46C8-A3B0-7EF195C2AF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4421D0CF-99A2-4314-83D0-831F60614BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,20 +433,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,20 +474,20 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.43287420978799301</v>
       </c>
@@ -515,20 +515,20 @@
       <c r="I2">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.55709616290984298</v>
       </c>
@@ -556,20 +556,20 @@
       <c r="I3">
         <v>9.8039215686274508E-2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.88763174834449998</v>
       </c>
@@ -597,20 +597,20 @@
       <c r="I4">
         <v>0.13725490196078433</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.65645189769057199</v>
       </c>
@@ -638,20 +638,20 @@
       <c r="I5">
         <v>0.10196078431372549</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.40677896586673401</v>
       </c>
@@ -679,20 +679,20 @@
       <c r="I6">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.44231574000825802</v>
       </c>
@@ -720,20 +720,20 @@
       <c r="I7">
         <v>0.12156862745098039</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
         <v>13</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.44789571078414298</v>
       </c>
@@ -761,20 +761,20 @@
       <c r="I8">
         <v>8.6274509803921567E-2</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>13</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.48920987836261498</v>
       </c>
@@ -802,20 +802,20 @@
       <c r="I9">
         <v>0.14117647058823529</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
         <v>13</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.54389734577744897</v>
       </c>
@@ -843,20 +843,20 @@
       <c r="I10">
         <v>7.0588235294117646E-2</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
         <v>13</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.73221145357300299</v>
       </c>
@@ -884,20 +884,20 @@
       <c r="I11">
         <v>8.2352941176470587E-2</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
         <v>13</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.36287258313649001</v>
       </c>
@@ -925,20 +925,20 @@
       <c r="I12">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
         <v>13</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.74261090078955205</v>
       </c>
@@ -966,20 +966,20 @@
       <c r="I13">
         <v>0.15686274509803921</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
         <v>13</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.59138792301628496</v>
       </c>
@@ -1007,20 +1007,20 @@
       <c r="I14">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
         <v>13</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.52295872615113403</v>
       </c>
@@ -1048,20 +1048,20 @@
       <c r="I15">
         <v>8.6274509803921567E-2</v>
       </c>
-      <c r="K15" t="s">
+      <c r="J15" t="s">
         <v>13</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.22360479876096401</v>
       </c>
@@ -1089,20 +1089,20 @@
       <c r="I16">
         <v>0.45490196078431372</v>
       </c>
-      <c r="K16" t="s">
+      <c r="J16" t="s">
         <v>13</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.69742752711433398</v>
       </c>
@@ -1130,20 +1130,20 @@
       <c r="I17">
         <v>4.3137254901960784E-2</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s">
         <v>13</v>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.95970700808737797</v>
       </c>
@@ -1171,20 +1171,20 @@
       <c r="I18">
         <v>7.0588235294117646E-2</v>
       </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s">
         <v>13</v>
       </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1212,20 +1212,20 @@
       <c r="I19">
         <v>5.4901960784313725E-2</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s">
         <v>13</v>
       </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.33302769895546702</v>
       </c>
@@ -1253,20 +1253,20 @@
       <c r="I20">
         <v>8.6274509803921567E-2</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s">
         <v>13</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.25955449213020398</v>
       </c>
@@ -1294,20 +1294,20 @@
       <c r="I21">
         <v>3.5294117647058823E-2</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s">
         <v>13</v>
       </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.124762084838913</v>
       </c>
@@ -1335,20 +1335,20 @@
       <c r="I22">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s">
         <v>14</v>
       </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
       <c r="L22">
         <v>2</v>
       </c>
       <c r="M22">
         <v>2</v>
       </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9.1972544347107998E-2</v>
       </c>
@@ -1376,20 +1376,20 @@
       <c r="I23">
         <v>7.8431372549019607E-3</v>
       </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s">
         <v>14</v>
       </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
       <c r="L23">
         <v>2</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.162352332715577</v>
       </c>
@@ -1417,20 +1417,20 @@
       <c r="I24">
         <v>9.0196078431372548E-2</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s">
         <v>14</v>
       </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
       <c r="L24">
         <v>2</v>
       </c>
       <c r="M24">
         <v>2</v>
       </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.135337405059859</v>
       </c>
@@ -1458,20 +1458,20 @@
       <c r="I25">
         <v>5.0980392156862744E-2</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s">
         <v>14</v>
       </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
       <c r="L25">
         <v>2</v>
       </c>
       <c r="M25">
         <v>2</v>
       </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.43848476717333901</v>
       </c>
@@ -1499,20 +1499,20 @@
       <c r="I26">
         <v>9.4117647058823528E-2</v>
       </c>
-      <c r="K26" t="s">
+      <c r="J26" t="s">
         <v>14</v>
       </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
       <c r="L26">
         <v>2</v>
       </c>
       <c r="M26">
         <v>2</v>
       </c>
-      <c r="N26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.28123275158528999</v>
       </c>
@@ -1540,20 +1540,20 @@
       <c r="I27">
         <v>5.4901960784313725E-2</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" t="s">
         <v>14</v>
       </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
       <c r="L27">
         <v>2</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.28378603832502203</v>
       </c>
@@ -1581,20 +1581,20 @@
       <c r="I28">
         <v>5.4901960784313725E-2</v>
       </c>
-      <c r="K28" t="s">
+      <c r="J28" t="s">
         <v>14</v>
       </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
       <c r="L28">
         <v>2</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.177384260964952</v>
       </c>
@@ -1622,20 +1622,20 @@
       <c r="I29">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="K29" t="s">
+      <c r="J29" t="s">
         <v>14</v>
       </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
       <c r="L29">
         <v>2</v>
       </c>
       <c r="M29">
         <v>2</v>
       </c>
-      <c r="N29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.189725957882239</v>
       </c>
@@ -1663,20 +1663,20 @@
       <c r="I30">
         <v>5.0980392156862744E-2</v>
       </c>
-      <c r="K30" t="s">
+      <c r="J30" t="s">
         <v>14</v>
       </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
       <c r="L30">
         <v>2</v>
       </c>
       <c r="M30">
         <v>2</v>
       </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3.1228928259107499E-2</v>
       </c>
@@ -1704,20 +1704,20 @@
       <c r="I31">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="K31" t="s">
+      <c r="J31" t="s">
         <v>14</v>
       </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
       <c r="L31">
         <v>2</v>
       </c>
       <c r="M31">
         <v>2</v>
       </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.5699703448918299E-2</v>
       </c>
@@ -1745,20 +1745,20 @@
       <c r="I32">
         <v>0.17647058823529413</v>
       </c>
-      <c r="K32" t="s">
+      <c r="J32" t="s">
         <v>14</v>
       </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
       <c r="L32">
         <v>2</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.45703763126173902</v>
       </c>
@@ -1786,20 +1786,20 @@
       <c r="I33">
         <v>5.0980392156862744E-2</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J33" t="s">
         <v>14</v>
       </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
       <c r="L33">
         <v>2</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.20203776334028001</v>
       </c>
@@ -1827,20 +1827,20 @@
       <c r="I34">
         <v>0.74901960784313726</v>
       </c>
-      <c r="K34" t="s">
+      <c r="J34" t="s">
         <v>14</v>
       </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
       <c r="L34">
         <v>2</v>
       </c>
       <c r="M34">
         <v>2</v>
       </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7.6131461247460994E-2</v>
       </c>
@@ -1868,20 +1868,20 @@
       <c r="I35">
         <v>0.14117647058823529</v>
       </c>
-      <c r="K35" t="s">
+      <c r="J35" t="s">
         <v>14</v>
       </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
       <c r="L35">
         <v>2</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.314748028901565</v>
       </c>
@@ -1909,20 +1909,20 @@
       <c r="I36">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J36" t="s">
         <v>14</v>
       </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
       <c r="L36">
         <v>2</v>
       </c>
       <c r="M36">
         <v>2</v>
       </c>
-      <c r="N36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.8609338091868298E-2</v>
       </c>
@@ -1950,20 +1950,20 @@
       <c r="I37">
         <v>9.4117647058823528E-2</v>
       </c>
-      <c r="K37" t="s">
+      <c r="J37" t="s">
         <v>14</v>
       </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
       <c r="L37">
         <v>2</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.44743065529030202</v>
       </c>
@@ -1991,20 +1991,20 @@
       <c r="I38">
         <v>3.5294117647058823E-2</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s">
         <v>14</v>
       </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
       <c r="L38">
         <v>2</v>
       </c>
       <c r="M38">
         <v>2</v>
       </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2032,20 +2032,20 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="K39" t="s">
+      <c r="J39" t="s">
         <v>14</v>
       </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
       <c r="L39">
         <v>2</v>
       </c>
       <c r="M39">
         <v>2</v>
       </c>
-      <c r="N39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.9005837871505701E-2</v>
       </c>
@@ -2073,20 +2073,20 @@
       <c r="I40">
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="K40" t="s">
+      <c r="J40" t="s">
         <v>14</v>
       </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
       <c r="L40">
         <v>2</v>
       </c>
       <c r="M40">
         <v>2</v>
       </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.22886917133923501</v>
       </c>
@@ -2114,20 +2114,20 @@
       <c r="I41">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="K41" t="s">
+      <c r="J41" t="s">
         <v>15</v>
       </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.28416976124370702</v>
       </c>
@@ -2155,20 +2155,20 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="K42" t="s">
+      <c r="J42" t="s">
         <v>15</v>
       </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.36232132901598701</v>
       </c>
@@ -2196,20 +2196,20 @@
       <c r="I43">
         <v>0.52941176470588236</v>
       </c>
-      <c r="K43" t="s">
+      <c r="J43" t="s">
         <v>15</v>
       </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.22056421172051099</v>
       </c>
@@ -2237,20 +2237,20 @@
       <c r="I44">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="K44" t="s">
+      <c r="J44" t="s">
         <v>15</v>
       </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.28486769205957702</v>
       </c>
@@ -2278,20 +2278,20 @@
       <c r="I45">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="K45" t="s">
+      <c r="J45" t="s">
         <v>15</v>
       </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.29302249923185902</v>
       </c>
@@ -2319,20 +2319,20 @@
       <c r="I46">
         <v>0.89411764705882357</v>
       </c>
-      <c r="K46" t="s">
+      <c r="J46" t="s">
         <v>15</v>
       </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.97403822492002301</v>
       </c>
@@ -2360,20 +2360,20 @@
       <c r="I47">
         <v>7.8431372549019607E-2</v>
       </c>
-      <c r="K47" t="s">
+      <c r="J47" t="s">
         <v>15</v>
       </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.55891328557187903</v>
       </c>
@@ -2401,20 +2401,20 @@
       <c r="I48">
         <v>0.39215686274509803</v>
       </c>
-      <c r="K48" t="s">
+      <c r="J48" t="s">
         <v>15</v>
       </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.16774669838405401</v>
       </c>
@@ -2442,20 +2442,20 @@
       <c r="I49">
         <v>0.27843137254901962</v>
       </c>
-      <c r="K49" t="s">
+      <c r="J49" t="s">
         <v>15</v>
       </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.43297292111852498</v>
       </c>
@@ -2483,20 +2483,20 @@
       <c r="I50">
         <v>0.396078431372549</v>
       </c>
-      <c r="K50" t="s">
+      <c r="J50" t="s">
         <v>15</v>
       </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.31902806877538198</v>
       </c>
@@ -2524,20 +2524,20 @@
       <c r="I51">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="K51" t="s">
+      <c r="J51" t="s">
         <v>15</v>
       </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.417854099092273</v>
       </c>
@@ -2565,20 +2565,20 @@
       <c r="I52">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="K52" t="s">
+      <c r="J52" t="s">
         <v>15</v>
       </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>7.3380751846666606E-2</v>
       </c>
@@ -2606,20 +2606,20 @@
       <c r="I53">
         <v>0.14509803921568629</v>
       </c>
-      <c r="K53" t="s">
+      <c r="J53" t="s">
         <v>15</v>
       </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7.1240384334650894E-2</v>
       </c>
@@ -2647,20 +2647,20 @@
       <c r="I54">
         <v>0.28235294117647058</v>
       </c>
-      <c r="K54" t="s">
+      <c r="J54" t="s">
         <v>15</v>
       </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.146119880044879</v>
       </c>
@@ -2688,20 +2688,20 @@
       <c r="I55">
         <v>3.5294117647058823E-2</v>
       </c>
-      <c r="K55" t="s">
+      <c r="J55" t="s">
         <v>15</v>
       </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.52709139417936801</v>
       </c>
@@ -2729,20 +2729,20 @@
       <c r="I56">
         <v>1.5686274509803921E-2</v>
       </c>
-      <c r="K56" t="s">
+      <c r="J56" t="s">
         <v>15</v>
       </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.27244952861863903</v>
       </c>
@@ -2770,20 +2770,20 @@
       <c r="I57">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="K57" t="s">
+      <c r="J57" t="s">
         <v>15</v>
       </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.113917046334542</v>
       </c>
@@ -2811,20 +2811,20 @@
       <c r="I58">
         <v>3.5294117647058823E-2</v>
       </c>
-      <c r="K58" t="s">
+      <c r="J58" t="s">
         <v>15</v>
       </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.65482316073680402</v>
       </c>
@@ -2852,20 +2852,20 @@
       <c r="I59">
         <v>9.8039215686274508E-2</v>
       </c>
-      <c r="K59" t="s">
+      <c r="J59" t="s">
         <v>15</v>
       </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.14968530549766501</v>
       </c>
@@ -2893,20 +2893,20 @@
       <c r="I60">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="K60" t="s">
+      <c r="J60" t="s">
         <v>16</v>
       </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
       <c r="L60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>3</v>
-      </c>
-      <c r="N60">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.23187986692044299</v>
       </c>
@@ -2934,20 +2934,20 @@
       <c r="I61">
         <v>3.5294117647058823E-2</v>
       </c>
-      <c r="K61" t="s">
+      <c r="J61" t="s">
         <v>16</v>
       </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
       <c r="L61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>3</v>
-      </c>
-      <c r="N61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.227615120351357</v>
       </c>
@@ -2975,20 +2975,20 @@
       <c r="I62">
         <v>4.3137254901960784E-2</v>
       </c>
-      <c r="K62" t="s">
+      <c r="J62" t="s">
         <v>16</v>
       </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
       <c r="L62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>3</v>
-      </c>
-      <c r="N62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.15592358352716401</v>
       </c>
@@ -3016,20 +3016,20 @@
       <c r="I63">
         <v>2.7450980392156862E-2</v>
       </c>
-      <c r="K63" t="s">
+      <c r="J63" t="s">
         <v>16</v>
       </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
       <c r="L63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>3</v>
-      </c>
-      <c r="N63">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.14674134433709801</v>
       </c>
@@ -3057,20 +3057,20 @@
       <c r="I64">
         <v>7.4509803921568626E-2</v>
       </c>
-      <c r="K64" t="s">
+      <c r="J64" t="s">
         <v>16</v>
       </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
       <c r="L64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>3</v>
-      </c>
-      <c r="N64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.215513250258248</v>
       </c>
@@ -3098,20 +3098,20 @@
       <c r="I65">
         <v>7.0588235294117646E-2</v>
       </c>
-      <c r="K65" t="s">
+      <c r="J65" t="s">
         <v>16</v>
       </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
       <c r="L65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>3</v>
-      </c>
-      <c r="N65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.37638213241499402</v>
       </c>
@@ -3139,20 +3139,20 @@
       <c r="I66">
         <v>6.2745098039215685E-2</v>
       </c>
-      <c r="K66" t="s">
+      <c r="J66" t="s">
         <v>16</v>
       </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
       <c r="L66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>3</v>
-      </c>
-      <c r="N66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.10086143014644</v>
       </c>
@@ -3180,20 +3180,20 @@
       <c r="I67">
         <v>0.11764705882352941</v>
       </c>
-      <c r="K67" t="s">
+      <c r="J67" t="s">
         <v>16</v>
       </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
       <c r="L67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>3</v>
-      </c>
-      <c r="N67">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.16512320147260601</v>
       </c>
@@ -3221,20 +3221,20 @@
       <c r="I68">
         <v>2.7450980392156862E-2</v>
       </c>
-      <c r="K68" t="s">
+      <c r="J68" t="s">
         <v>16</v>
       </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
       <c r="L68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>3</v>
-      </c>
-      <c r="N68">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.13508228493095101</v>
       </c>
@@ -3262,20 +3262,20 @@
       <c r="I69">
         <v>0.24313725490196078</v>
       </c>
-      <c r="K69" t="s">
+      <c r="J69" t="s">
         <v>16</v>
       </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
       <c r="L69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>3</v>
-      </c>
-      <c r="N69">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.8230383903657696E-2</v>
       </c>
@@ -3303,20 +3303,20 @@
       <c r="I70">
         <v>1.5686274509803921E-2</v>
       </c>
-      <c r="K70" t="s">
+      <c r="J70" t="s">
         <v>16</v>
       </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
       <c r="L70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>3</v>
-      </c>
-      <c r="N70">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.19872745801640301</v>
       </c>
@@ -3344,20 +3344,20 @@
       <c r="I71">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="K71" t="s">
+      <c r="J71" t="s">
         <v>16</v>
       </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
       <c r="L71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>3</v>
-      </c>
-      <c r="N71">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7.30283106876565E-2</v>
       </c>
@@ -3385,20 +3385,20 @@
       <c r="I72">
         <v>3.5294117647058823E-2</v>
       </c>
-      <c r="K72" t="s">
+      <c r="J72" t="s">
         <v>16</v>
       </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
       <c r="L72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>3</v>
-      </c>
-      <c r="N72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.54829695148824698</v>
       </c>
@@ -3426,20 +3426,20 @@
       <c r="I73">
         <v>8.6274509803921567E-2</v>
       </c>
-      <c r="K73" t="s">
+      <c r="J73" t="s">
         <v>16</v>
       </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
       <c r="L73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>3</v>
-      </c>
-      <c r="N73">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.48525238818856398</v>
       </c>
@@ -3467,20 +3467,20 @@
       <c r="I74">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="K74" t="s">
+      <c r="J74" t="s">
         <v>16</v>
       </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
       <c r="L74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>3</v>
-      </c>
-      <c r="N74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.19485477616858199</v>
       </c>
@@ -3508,20 +3508,20 @@
       <c r="I75">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K75" t="s">
+      <c r="J75" t="s">
         <v>16</v>
       </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
       <c r="L75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>3</v>
-      </c>
-      <c r="N75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.42456716471862399</v>
       </c>
@@ -3549,20 +3549,20 @@
       <c r="I76">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="K76" t="s">
+      <c r="J76" t="s">
         <v>17</v>
       </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
       <c r="L76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>3</v>
-      </c>
-      <c r="N76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.32861488539058398</v>
       </c>
@@ -3590,20 +3590,20 @@
       <c r="I77">
         <v>0.18823529411764706</v>
       </c>
-      <c r="K77" t="s">
+      <c r="J77" t="s">
         <v>17</v>
       </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
       <c r="L77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.31557178190635199</v>
       </c>
@@ -3631,20 +3631,20 @@
       <c r="I78">
         <v>4.3137254901960784E-2</v>
       </c>
-      <c r="K78" t="s">
+      <c r="J78" t="s">
         <v>17</v>
       </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.181480781182006</v>
       </c>
@@ -3672,20 +3672,20 @@
       <c r="I79">
         <v>0.41960784313725491</v>
       </c>
-      <c r="K79" t="s">
+      <c r="J79" t="s">
         <v>17</v>
       </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
       <c r="L79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>3</v>
-      </c>
-      <c r="N79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.24713354808840601</v>
       </c>
@@ -3713,20 +3713,20 @@
       <c r="I80">
         <v>0.17647058823529413</v>
       </c>
-      <c r="K80" t="s">
+      <c r="J80" t="s">
         <v>17</v>
       </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
       <c r="L80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>3</v>
-      </c>
-      <c r="N80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.57572688382232495</v>
       </c>
@@ -3754,20 +3754,20 @@
       <c r="I81">
         <v>0.27843137254901962</v>
       </c>
-      <c r="K81" t="s">
+      <c r="J81" t="s">
         <v>17</v>
       </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
       <c r="L81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>3</v>
-      </c>
-      <c r="N81">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.55162880646878998</v>
       </c>
@@ -3795,20 +3795,20 @@
       <c r="I82">
         <v>2.7450980392156862E-2</v>
       </c>
-      <c r="K82" t="s">
+      <c r="J82" t="s">
         <v>17</v>
       </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
       <c r="L82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>3</v>
-      </c>
-      <c r="N82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.19091327444947601</v>
       </c>
@@ -3836,20 +3836,20 @@
       <c r="I83">
         <v>4.3137254901960784E-2</v>
       </c>
-      <c r="K83" t="s">
+      <c r="J83" t="s">
         <v>17</v>
       </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
       <c r="L83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>3</v>
-      </c>
-      <c r="N83">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.34547019265393097</v>
       </c>
@@ -3877,20 +3877,20 @@
       <c r="I84">
         <v>5.4901960784313725E-2</v>
       </c>
-      <c r="K84" t="s">
+      <c r="J84" t="s">
         <v>17</v>
       </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
       <c r="L84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.39419883242569898</v>
       </c>
@@ -3918,20 +3918,20 @@
       <c r="I85">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="K85" t="s">
+      <c r="J85" t="s">
         <v>17</v>
       </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
       <c r="L85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>3</v>
-      </c>
-      <c r="N85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8.3005801723694497E-2</v>
       </c>
@@ -3959,20 +3959,20 @@
       <c r="I86">
         <v>0.36862745098039218</v>
       </c>
-      <c r="K86" t="s">
+      <c r="J86" t="s">
         <v>17</v>
       </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
       <c r="L86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>3</v>
-      </c>
-      <c r="N86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.65545435713203304</v>
       </c>
@@ -4000,20 +4000,20 @@
       <c r="I87">
         <v>5.0980392156862744E-2</v>
       </c>
-      <c r="K87" t="s">
+      <c r="J87" t="s">
         <v>17</v>
       </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
       <c r="L87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>3</v>
-      </c>
-      <c r="N87">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.28756278944317099</v>
       </c>
@@ -4041,20 +4041,20 @@
       <c r="I88">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="K88" t="s">
+      <c r="J88" t="s">
         <v>17</v>
       </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
       <c r="L88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>3</v>
-      </c>
-      <c r="N88">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.302326389709552</v>
       </c>
@@ -4082,20 +4082,20 @@
       <c r="I89">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="K89" t="s">
+      <c r="J89" t="s">
         <v>17</v>
       </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
       <c r="L89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>3</v>
-      </c>
-      <c r="N89">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.11028975251262001</v>
       </c>
@@ -4123,20 +4123,20 @@
       <c r="I90">
         <v>3.9215686274509803E-3</v>
       </c>
-      <c r="K90" t="s">
+      <c r="J90" t="s">
         <v>17</v>
       </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
       <c r="L90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>3</v>
-      </c>
-      <c r="N90">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.38982008122135098</v>
       </c>
@@ -4164,20 +4164,20 @@
       <c r="I91">
         <v>5.0980392156862744E-2</v>
       </c>
-      <c r="K91" t="s">
+      <c r="J91" t="s">
         <v>18</v>
       </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
       <c r="L91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>3</v>
-      </c>
-      <c r="N91">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.122548726554321</v>
       </c>
@@ -4205,20 +4205,20 @@
       <c r="I92">
         <v>2.7450980392156862E-2</v>
       </c>
-      <c r="K92" t="s">
+      <c r="J92" t="s">
         <v>18</v>
       </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
       <c r="L92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>3</v>
-      </c>
-      <c r="N92">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8.5271296274411906E-2</v>
       </c>
@@ -4246,20 +4246,20 @@
       <c r="I93">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="K93" t="s">
+      <c r="J93" t="s">
         <v>18</v>
       </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
       <c r="L93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M93">
-        <v>3</v>
-      </c>
-      <c r="N93">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.337491258486046</v>
       </c>
@@ -4287,20 +4287,20 @@
       <c r="I94">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="K94" t="s">
+      <c r="J94" t="s">
         <v>18</v>
       </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
       <c r="L94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>3</v>
-      </c>
-      <c r="N94">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.138786740426739</v>
       </c>
@@ -4328,20 +4328,20 @@
       <c r="I95">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="K95" t="s">
+      <c r="J95" t="s">
         <v>18</v>
       </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
       <c r="L95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>3</v>
-      </c>
-      <c r="N95">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>6.7136217465232101E-2</v>
       </c>
@@ -4369,20 +4369,20 @@
       <c r="I96">
         <v>1.5686274509803921E-2</v>
       </c>
-      <c r="K96" t="s">
+      <c r="J96" t="s">
         <v>18</v>
       </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
       <c r="L96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M96">
-        <v>3</v>
-      </c>
-      <c r="N96">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.414358883811203</v>
       </c>
@@ -4410,20 +4410,20 @@
       <c r="I97">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="K97" t="s">
+      <c r="J97" t="s">
         <v>18</v>
       </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
       <c r="L97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M97">
-        <v>3</v>
-      </c>
-      <c r="N97">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.106193927445782</v>
       </c>
@@ -4451,20 +4451,20 @@
       <c r="I98">
         <v>7.8431372549019607E-3</v>
       </c>
-      <c r="K98" t="s">
+      <c r="J98" t="s">
         <v>18</v>
       </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
       <c r="L98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M98">
-        <v>3</v>
-      </c>
-      <c r="N98">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>7.4042534851356007E-2</v>
       </c>
@@ -4492,20 +4492,20 @@
       <c r="I99">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="K99" t="s">
+      <c r="J99" t="s">
         <v>18</v>
       </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
       <c r="L99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>3</v>
-      </c>
-      <c r="N99">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.20688574093976</v>
       </c>
@@ -4533,20 +4533,20 @@
       <c r="I100">
         <v>5.0980392156862744E-2</v>
       </c>
-      <c r="K100" t="s">
+      <c r="J100" t="s">
         <v>18</v>
       </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
       <c r="L100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>3</v>
-      </c>
-      <c r="N100">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.29990031545916801</v>
       </c>
@@ -4574,20 +4574,20 @@
       <c r="I101">
         <v>5.4901960784313725E-2</v>
       </c>
-      <c r="K101" t="s">
+      <c r="J101" t="s">
         <v>18</v>
       </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
       <c r="L101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>3</v>
-      </c>
-      <c r="N101">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.127396704153801</v>
       </c>
@@ -4615,20 +4615,20 @@
       <c r="I102">
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="K102" t="s">
+      <c r="J102" t="s">
         <v>18</v>
       </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
       <c r="L102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.39054164714453099</v>
       </c>
@@ -4656,20 +4656,20 @@
       <c r="I103">
         <v>0.47843137254901963</v>
       </c>
-      <c r="K103" t="s">
+      <c r="J103" t="s">
         <v>18</v>
       </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
       <c r="L103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>9.9493374523300801E-2</v>
       </c>
@@ -4697,20 +4697,20 @@
       <c r="I104">
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="K104" t="s">
+      <c r="J104" t="s">
         <v>18</v>
       </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
       <c r="L104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>3</v>
-      </c>
-      <c r="N104">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.395919329207849</v>
       </c>
@@ -4738,20 +4738,20 @@
       <c r="I105">
         <v>0.40784313725490196</v>
       </c>
-      <c r="K105" t="s">
+      <c r="J105" t="s">
         <v>18</v>
       </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
       <c r="L105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>3</v>
-      </c>
-      <c r="N105">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5.7021086686622098E-2</v>
       </c>
@@ -4779,20 +4779,20 @@
       <c r="I106">
         <v>6.2745098039215685E-2</v>
       </c>
-      <c r="K106" t="s">
+      <c r="J106" t="s">
         <v>18</v>
       </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
       <c r="L106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>3</v>
-      </c>
-      <c r="N106">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.14081588390435301</v>
       </c>
@@ -4820,20 +4820,20 @@
       <c r="I107">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="K107" t="s">
+      <c r="J107" t="s">
         <v>18</v>
       </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
       <c r="L107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>3</v>
-      </c>
-      <c r="N107">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.185878301442159</v>
       </c>
@@ -4861,16 +4861,16 @@
       <c r="I108">
         <v>3.9215686274509803E-3</v>
       </c>
-      <c r="K108" t="s">
+      <c r="J108" t="s">
         <v>18</v>
       </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
       <c r="L108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>3</v>
-      </c>
-      <c r="N108">
         <v>6</v>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4898,7 +4898,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
